--- a/answers_by_question_female_pre.xlsx
+++ b/answers_by_question_female_pre.xlsx
@@ -6153,12 +6153,9 @@
       <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr"/>
@@ -6186,8 +6183,6 @@
       <c r="I6" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6207,12 +6202,6 @@
       <c r="E7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
